--- a/history_agenda.xlsx
+++ b/history_agenda.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G160"/>
+  <dimension ref="A1:G173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,65 +473,69 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Javonne</t>
+          <t>Chenille</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wellington</t>
+          <t>Hogan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>javonneq@gmail.com</t>
+          <t>chenille.hogan@live.com</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>+16174488002</t>
+          <t>(617) 372-5528</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>01/07/2025</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Alexa</t>
+          <t>Felicia</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Centeno</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>stagedbyalexa@gmail.com</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>BostonEntertainers@gmail.com</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8573892189</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>01/06/2025</t>
+          <t>01/09/2025</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
@@ -543,32 +547,32 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Chenille</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Hogan</t>
+          <t>Germand</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>chenille.hogan@live.com</t>
+          <t>hlg211@gmail.com</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>(617) 372-5528</t>
+          <t>6176998086</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>01/07/2025</t>
+          <t>01/09/2025</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
@@ -580,32 +584,32 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Felicia</t>
+          <t>Lena</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Germand</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>BostonEntertainers@gmail.com</t>
+          <t>hlg211@gmail.com</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>8573892189</t>
+          <t>6176998086</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>01/10/2025</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -617,32 +621,32 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Jacquelyn</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Germand</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>hlg211@gmail.com</t>
+          <t>jharp84@gmail.com</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>6176998086</t>
+          <t>8574927256</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>01/09/2025</t>
+          <t>01/13/2025</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
@@ -654,59 +658,59 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Lena</t>
+          <t>Melodie</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Germand</t>
+          <t>Pharms</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>hlg211@gmail.com</t>
+          <t>sweetmel37@yahoo.com</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>6176998086</t>
+          <t>(617) 306-2631</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>01/10/2025</t>
+          <t>01/15/2025</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Jacquelyn</t>
+          <t>Mariana</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Harper</t>
+          <t>Nikolaeva</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>jharp84@gmail.com</t>
+          <t>mnik@mail.bg</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>8574927256</t>
+          <t>5084888309</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -716,7 +720,7 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>01/13/2025</t>
+          <t>01/15/2025</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
@@ -728,27 +732,27 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Melodie</t>
+          <t>Felicia</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Pharms</t>
+          <t>S</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>sweetmel37@yahoo.com</t>
+          <t>BostonEntertainers@gmail.com</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>(617) 306-2631</t>
+          <t>8573892189</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -758,108 +762,104 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Mariana</t>
+          <t>Martha</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Nikolaeva</t>
+          <t>Mensoian</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>mnik@mail.bg</t>
+          <t>martha@hustlestop.com</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>5084888309</t>
+          <t>6179703737</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>01/15/2025</t>
+          <t>01/17/2025</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Felicia</t>
+          <t>Alexa</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>S</t>
+          <t>Centeno</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>BostonEntertainers@gmail.com</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>8573892189</t>
-        </is>
-      </c>
+          <t>stagedbyalexa@gmail.com</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>01/15/2025</t>
+          <t>01/17/2025</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Martha</t>
+          <t>Tayyaba</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mensoian</t>
+          <t>Nazim</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>martha@hustlestop.com</t>
+          <t>tab.sab@me.com</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6179703737</t>
+          <t>3616887835</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -869,72 +869,68 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Alexa</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Centeno</t>
+          <t>test</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>stagedbyalexa@gmail.com</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>hello@figurellamass.com</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>777-777-7777</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>01/17/2025</t>
+          <t>07/14/2025</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Tayyaba</t>
+          <t>Joanne</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Nazim</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>tab.sab@me.com</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>3616887835</t>
-        </is>
-      </c>
+          <t>Baker</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr"/>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>01/17/2025</t>
+          <t>01/20/2025</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
@@ -946,53 +942,61 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Kanitra</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>Porch</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>hello@figurellamass.com</t>
+          <t>kanitraporch@gmail.com</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>777-777-7777</t>
+          <t>8572177765</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>07/14/2025</t>
+          <t>01/20/2025</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Joanne</t>
+          <t>Jennifer</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Baker</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr"/>
-      <c r="D16" t="inlineStr"/>
+          <t>Duffy</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>j.duffy0042@gmail.com</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6175719329</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>No Show</t>
@@ -1012,22 +1016,22 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Kanitra</t>
+          <t>Carla</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Porch</t>
+          <t>Rivera Perez</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>kanitraporch@gmail.com</t>
+          <t>crivera8ga3@yahoo.com</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>8572177765</t>
+          <t>7813648997</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
@@ -1049,175 +1053,175 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jennifer</t>
+          <t>Tayyaba</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Duffy</t>
+          <t>Nazim</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>j.duffy0042@gmail.com</t>
+          <t>tab.sab@me.com</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>6175719329</t>
+          <t>3616887835</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>01/20/2025</t>
+          <t>01/21/2025</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Carla</t>
+          <t>Gislene</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Rivera Perez</t>
+          <t>Melo</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>crivera8ga3@yahoo.com</t>
+          <t>osmosemelose@gmail.com</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>7813648997</t>
+          <t>(617) 418-0126</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>01/20/2025</t>
+          <t>01/22/2025</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tayyaba</t>
+          <t>Tanaysha</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Nazim</t>
+          <t>Howell</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>tab.sab@me.com</t>
+          <t>julezdana@gmail.com</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>3616887835</t>
+          <t>(857) 383-1748</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>01/21/2025</t>
+          <t>01/23/2025</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Gislene</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Melo</t>
+          <t>Denuccio-Currao</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>osmosemelose@gmail.com</t>
+          <t>graciouslyellasmomndaddy@gmail.com</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>(617) 418-0126</t>
+          <t>+17815845563</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>01/22/2025</t>
+          <t>01/23/2025</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Tanaysha</t>
+          <t>Fumi</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Howell</t>
+          <t>Chamovitz</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>julezdana@gmail.com</t>
+          <t>f.nakayama1115@gmail.com</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>(857) 383-1748</t>
+          <t>8572651115</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1227,29 +1231,29 @@
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Denuccio-Currao</t>
+          <t>Lu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>graciouslyellasmomndaddy@gmail.com</t>
+          <t>luciannalove@myyahoo.com</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>+17815845563</t>
+          <t>(781) 32423232</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -1271,59 +1275,51 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Fumi</t>
+          <t>Wendy</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Chamovitz</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>f.nakayama1115@gmail.com</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>8572651115</t>
-        </is>
-      </c>
+          <t>Fain</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr"/>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>01/23/2025</t>
+          <t>01/24/2025</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Cans</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Lu</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>luciannalove@myyahoo.com</t>
+          <t>cacans@hotmail.com</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>(781) 32423232</t>
+          <t>(617) 922-0173</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
@@ -1333,7 +1329,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>01/23/2025</t>
+          <t>01/27/2025</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
@@ -1345,56 +1341,64 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Wendy</t>
+          <t>Georgina</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fain</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="inlineStr"/>
+          <t>Soiffer</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>ginagarcia88@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>6172904759</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>01/24/2025</t>
+          <t>01/27/2025</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Cans</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Tran</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>cacans@hotmail.com</t>
+          <t>sandy54anthony@gnail.com</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>(617) 922-0173</t>
+          <t>6178188842</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
@@ -1404,105 +1408,89 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Georgina</t>
+          <t>Nancy</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Soiffer</t>
+          <t>Stewart</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>ginagarcia88@yahoo.com</t>
+          <t>jillstewart8888@gmail.com</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>6172904759</t>
+          <t>7812961061</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>01/27/2025</t>
+          <t>01/28/2025</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>KIRSTEN</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Tran</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>sandy54anthony@gnail.com</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>6178188842</t>
-        </is>
-      </c>
+          <t>VOROBYOV</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>01/27/2025</t>
+          <t>01/30/2025</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nancy</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Stewart</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>jillstewart8888@gmail.com</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>7812961061</t>
-        </is>
-      </c>
+          <t>Centeno</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr"/>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Flop</t>
@@ -1510,7 +1498,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>01/28/2025</t>
+          <t>01/30/2025</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
@@ -1522,12 +1510,12 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>KIRSTEN</t>
+          <t>Julia</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>VOROBYOV</t>
+          <t>Rosman</t>
         </is>
       </c>
       <c r="C31" t="inlineStr"/>
@@ -1539,7 +1527,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>01/30/2025</t>
+          <t>01/31/2025</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
@@ -1551,80 +1539,96 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Ariana</t>
+          <t>Ashley</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Centeno</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr"/>
-      <c r="D32" t="inlineStr"/>
+          <t>Rose</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>organicallyashley@gmail.com</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>+1 617-899-7669</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>01/30/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Julia</t>
+          <t>Henna</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Rosman</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr"/>
-      <c r="D33" t="inlineStr"/>
+          <t>Aejaz</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>henna.kermani@gmail.com</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2486354677</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>01/31/2025</t>
+          <t>02/03/2025</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Ashley</t>
+          <t>Fantasia</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Rose</t>
+          <t>James</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>organicallyashley@gmail.com</t>
+          <t>afterhourznotary@gmail.com</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>+1 617-899-7669</t>
+          <t>8573333968</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1646,27 +1650,27 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Henna</t>
+          <t>Meagan</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Aejaz</t>
+          <t>Marcelus</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>henna.kermani@gmail.com</t>
+          <t>meaganmarcelus@yahoo.com</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2486354677</t>
+          <t>8572509278</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -1683,27 +1687,27 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Fantasia</t>
+          <t>Yousemithe</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>James</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>afterhourznotary@gmail.com</t>
+          <t>yousemithe29@gmail.com</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>8573333968</t>
+          <t>8576544869</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -1720,22 +1724,22 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Meagan</t>
+          <t>Francesca</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Marcelus</t>
+          <t>Signorelli</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>meaganmarcelus@yahoo.com</t>
+          <t>francescabgita@gmail.com</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>8572509278</t>
+          <t>6175134398</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -1745,7 +1749,7 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
@@ -1757,96 +1761,96 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Yousemithe</t>
+          <t>Veronika</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>Komarenko</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>yousemithe29@gmail.com</t>
+          <t>vika1922@ukr.net</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>8576544869</t>
+          <t>6176785077</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>02/03/2025</t>
+          <t>02/04/2025</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Veronika</t>
+          <t>Nerissa</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Komarenko</t>
+          <t>Williams Scott</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>vika1922@ukr.net</t>
+          <t>nerissaontour@gmail.com</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>6176785077</t>
+          <t>(617) 620-5900</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>02/05/2025</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Francesca</t>
+          <t>Jaida</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Signorelli</t>
+          <t>wathey</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>francescabgita@gmail.com</t>
+          <t>jaidawatheycross@gmail.com</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6175134398</t>
+          <t>781-307-0256</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
@@ -1856,7 +1860,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>02/04/2025</t>
+          <t>02/05/2025</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
@@ -1868,22 +1872,22 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Nerissa</t>
+          <t>Diana</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Williams Scott</t>
+          <t>Joniaux</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>nerissaontour@gmail.com</t>
+          <t>djoniaux21@gmail.com</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>(617) 620-5900</t>
+          <t>660-4413970</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
@@ -1905,22 +1909,22 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Diana</t>
+          <t>Susanne</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Joniaux</t>
+          <t>Samuel</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>djoniaux21@gmail.com</t>
+          <t>susanne28samuel@gmail.com</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>660-4413970</t>
+          <t>(857) 266-3467</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -1930,7 +1934,7 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
-          <t>02/05/2025</t>
+          <t>02/06/2025</t>
         </is>
       </c>
       <c r="G42" t="inlineStr">
@@ -1942,162 +1946,162 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Jaida</t>
+          <t>Anna</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>wathey</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>jaidawatheycross@gmail.com</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>781-307-0256</t>
-        </is>
-      </c>
+          <t>Kotkin</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
         <is>
-          <t>02/05/2025</t>
+          <t>02/07/2025</t>
         </is>
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Susanne</t>
+          <t>Masha</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Samuel</t>
+          <t>Chestukhin</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>susanne28samuel@gmail.com</t>
+          <t>m_chestukhin@yahoo.com</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>(857) 266-3467</t>
+          <t>+16175715147</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>02/06/2025</t>
+          <t>02/10/2025</t>
         </is>
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Anna</t>
+          <t>Barbara</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Kotkin</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr"/>
-      <c r="D45" t="inlineStr"/>
+          <t>Zolit</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>bzolit@aol.com</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8572056105</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>02/07/2025</t>
+          <t>02/12/2025</t>
         </is>
       </c>
       <c r="G45" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Masha</t>
+          <t>Ellen</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Chestukhin</t>
+          <t>Jacobs</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>m_chestukhin@yahoo.com</t>
+          <t>eajwab@aol.com</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>+16175715147</t>
+          <t>6176503360</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>02/10/2025</t>
+          <t>02/13/2025</t>
         </is>
       </c>
       <c r="G46" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Barbara</t>
+          <t>Meagan</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Zolit</t>
+          <t>Marcelus</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>bzolit@aol.com</t>
+          <t>meaganmarcelus@yahoo.com</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>8572056105</t>
+          <t>8572509278</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
@@ -2107,7 +2111,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>02/12/2025</t>
+          <t>02/17/2025</t>
         </is>
       </c>
       <c r="G47" t="inlineStr">
@@ -2119,59 +2123,59 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Ellen</t>
+          <t>Lisa</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Jacobs</t>
+          <t>Melchiorri</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>eajwab@aol.com</t>
+          <t>lisamelchiorri079@gmail.com</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>6176503360</t>
+          <t>(857) 265-5096</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>02/13/2025</t>
+          <t>02/17/2025</t>
         </is>
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Meagan</t>
+          <t>Yousemithe</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Marcelus</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>meaganmarcelus@yahoo.com</t>
+          <t>yousemithe29@gmail.com</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>8572509278</t>
+          <t>8576544869</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
@@ -2181,7 +2185,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>02/17/2025</t>
+          <t>02/18/2025</t>
         </is>
       </c>
       <c r="G49" t="inlineStr">
@@ -2193,37 +2197,37 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Lisa</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Melchiorri</t>
+          <t>Rodriguez</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>lisamelchiorri079@gmail.com</t>
+          <t>morningloree@gmail.com</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>(857) 265-5096</t>
+          <t>7025778959</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>02/17/2025</t>
+          <t>02/18/2025</t>
         </is>
       </c>
       <c r="G50" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
@@ -2267,22 +2271,22 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Yousemithe</t>
+          <t>Tatiana</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>Stridh</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>yousemithe29@gmail.com</t>
+          <t>tvstridh@gmail.cok</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>8576544869</t>
+          <t>+18572367313</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
@@ -2292,7 +2296,7 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>02/18/2025</t>
+          <t>02/19/2025</t>
         </is>
       </c>
       <c r="G52" t="inlineStr">
@@ -2304,69 +2308,65 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Milka</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Rodriguez</t>
+          <t>Bedikian</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>morningloree@gmail.com</t>
+          <t>milkainfo@gmail.com</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>7025778959</t>
+          <t>6177569686</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>02/18/2025</t>
+          <t>02/20/2025</t>
         </is>
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Tatiana</t>
+          <t>Rocio</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Stridh</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>tvstridh@gmail.cok</t>
-        </is>
-      </c>
+          <t>friend centeno</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr"/>
       <c r="D54" t="inlineStr">
         <is>
-          <t>+18572367313</t>
+          <t>8579916572</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F54" t="inlineStr">
         <is>
-          <t>02/19/2025</t>
+          <t>02/25/2025</t>
         </is>
       </c>
       <c r="G54" t="inlineStr">
@@ -2378,32 +2378,24 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Milka</t>
+          <t>Alena</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Bedikian</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>milkainfo@gmail.com</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>6177569686</t>
-        </is>
-      </c>
+          <t>Tverskaya</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr"/>
+      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>02/20/2025</t>
+          <t>02/25/2025</t>
         </is>
       </c>
       <c r="G55" t="inlineStr">
@@ -2415,57 +2407,69 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Alena</t>
+          <t>Yousemithe</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Tverskaya</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr"/>
-      <c r="D56" t="inlineStr"/>
+          <t>CHARLES</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>yousemithe29@gmail.com</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8576544869</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>02/25/2025</t>
+          <t>02/26/2025</t>
         </is>
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Rocio</t>
+          <t>Paci</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>friend centeno</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr"/>
+          <t>Ziu</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>paci.cuelloziu@gmail.com</t>
+        </is>
+      </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>8579916572</t>
+          <t>+17819746976</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>02/25/2025</t>
+          <t>02/27/2025</t>
         </is>
       </c>
       <c r="G57" t="inlineStr">
@@ -2477,246 +2481,246 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Yousemithe</t>
+          <t>Rocio</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>CHARLES</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>yousemithe29@gmail.com</t>
-        </is>
-      </c>
+          <t>friend centeno</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr"/>
       <c r="D58" t="inlineStr">
         <is>
-          <t>8576544869</t>
+          <t>8579916572</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>02/26/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Paci</t>
+          <t>Lydia</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Ziu</t>
+          <t>Morrison</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>paci.cuelloziu@gmail.com</t>
+          <t>lydiam82900@gmail.com</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>+17819746976</t>
+          <t>4133453543</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>02/27/2025</t>
+          <t>03/06/2025</t>
         </is>
       </c>
       <c r="G59" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Rocio</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>friend centeno</t>
+          <t>Theodorou</t>
         </is>
       </c>
       <c r="C60" t="inlineStr"/>
       <c r="D60" t="inlineStr">
         <is>
-          <t>8579916572</t>
+          <t>6174476382 6174476382</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="G60" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Lydia</t>
+          <t>Roopshree</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Morrison</t>
+          <t>Shah</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>lydiam82900@gmail.com</t>
+          <t>roopshreeshah@gmail.com</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>4133453543</t>
+          <t>6092031611</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>03/06/2025</t>
+          <t>03/07/2025</t>
         </is>
       </c>
       <c r="G61" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Raquel</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Theodorou</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr"/>
+          <t>Martinez</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>raquelkybc@gmail.com</t>
+        </is>
+      </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>6174476382 6174476382</t>
+          <t>(407) 687-6044</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="G62" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Roopshree</t>
+          <t>Jaida</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Shah</t>
+          <t>wathey</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>roopshreeshah@gmail.com</t>
+          <t>jaidawatheycross@gmail.com</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>6092031611</t>
+          <t>781-307-0256</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>03/07/2025</t>
+          <t>03/10/2025</t>
         </is>
       </c>
       <c r="G63" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>Denise</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Moore</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>raquelkybc@gmail.com</t>
+          <t>denise.s.moore@icloud.com</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>(407) 687-6044</t>
+          <t>6172937373</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="G64" t="inlineStr">
@@ -2728,32 +2732,32 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Jaida</t>
+          <t>Gretchen</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>wathey</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>jaidawatheycross@gmail.com</t>
+          <t>groyle@abbeyhille.com</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>781-307-0256</t>
+          <t>3107077413</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>03/10/2025</t>
+          <t>03/12/2025</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
@@ -2765,133 +2769,133 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Denise</t>
+          <t>Gretchen</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Moore</t>
+          <t>Evans</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>denise.s.moore@icloud.com</t>
+          <t>groyle@abbeyhille.com</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>6172937373</t>
+          <t>3107077413</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>03/13/2025</t>
         </is>
       </c>
       <c r="G66" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gretchen</t>
+          <t>Henna</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Aejaz</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>groyle@abbeyhille.com</t>
+          <t>henna.kermani@gmail.com</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>3107077413</t>
+          <t>2486354677</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>03/12/2025</t>
+          <t>03/17/2025</t>
         </is>
       </c>
       <c r="G67" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gretchen</t>
+          <t>Raquel</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Evans</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>groyle@abbeyhille.com</t>
+          <t>raquelkybc@gmail.com</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>3107077413</t>
+          <t>(407) 687-6044</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
         <is>
-          <t>03/13/2025</t>
+          <t>03/17/2025</t>
         </is>
       </c>
       <c r="G68" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Henna</t>
+          <t>Susan</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Aejaz</t>
+          <t>Lubin</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>henna.kermani@gmail.com</t>
+          <t>susanelubin@gmail.com</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>2486354677</t>
+          <t>6175294590</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
@@ -2901,44 +2905,44 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
-          <t>03/17/2025</t>
+          <t>03/18/2025</t>
         </is>
       </c>
       <c r="G69" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>MARIA</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>SALLES</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>raquelkybc@gmail.com</t>
+          <t>MARIAFERNANDASALLES@GMAIL.COM</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>(407) 687-6044</t>
+          <t>16178174006</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F70" t="inlineStr">
         <is>
-          <t>03/17/2025</t>
+          <t>03/20/2025</t>
         </is>
       </c>
       <c r="G70" t="inlineStr">
@@ -2950,24 +2954,20 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Susan</t>
+          <t>DANIELA</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Lubin</t>
+          <t>SCOTTO</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>susanelubin@gmail.com</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>6175294590</t>
-        </is>
-      </c>
+          <t>scottodaniela@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Current client</t>
@@ -2975,77 +2975,81 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
-          <t>03/18/2025</t>
+          <t>03/20/2025</t>
         </is>
       </c>
       <c r="G71" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>MARIA</t>
+          <t>Dana</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>SALLES</t>
+          <t>Cohen</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>MARIAFERNANDASALLES@GMAIL.COM</t>
+          <t>c.dana1125@gmail.com</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>16178174006</t>
+          <t>5082696761</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F72" t="inlineStr">
         <is>
-          <t>03/20/2025</t>
+          <t>03/21/2025</t>
         </is>
       </c>
       <c r="G72" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>DANIELA</t>
+          <t>Raquel</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>SCOTTO</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>scottodaniela@hotmail.com</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>raquelkybc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>(407) 687-6044</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F73" t="inlineStr">
         <is>
-          <t>03/20/2025</t>
+          <t>03/24/2025</t>
         </is>
       </c>
       <c r="G73" t="inlineStr">
@@ -3057,133 +3061,129 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Dana</t>
+          <t>Lucia</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Cohen</t>
+          <t>Rizzi</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>c.dana1125@gmail.com</t>
+          <t>luciarizzi97@gmail.com</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>5082696761</t>
+          <t>+5491135832222</t>
         </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>03/21/2025</t>
+          <t>03/24/2025</t>
         </is>
       </c>
       <c r="G74" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Lucia</t>
+          <t>stephanie</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Rizzi</t>
+          <t>Blumenthal</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>luciarizzi97@gmail.com</t>
+          <t>blumems@comcast.net</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>+5491135832222</t>
+          <t>+15082696732</t>
         </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>03/24/2025</t>
+          <t>03/26/2025</t>
         </is>
       </c>
       <c r="G75" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>DANIELA</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>SCOTTO</t>
         </is>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>raquelkybc@gmail.com</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>(407) 687-6044</t>
-        </is>
-      </c>
+          <t>scottodaniela@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>03/24/2025</t>
+          <t>03/26/2025</t>
         </is>
       </c>
       <c r="G76" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>stephanie</t>
+          <t>Sandy</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Blumenthal</t>
+          <t>Carliell</t>
         </is>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>blumems@comcast.net</t>
+          <t>sandykhansk1@gmail.com</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>+15082696732</t>
+          <t>(413) 459-8444</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
@@ -3193,7 +3193,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>03/26/2025</t>
+          <t>03/27/2025</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
@@ -3205,90 +3205,94 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>DANIELA</t>
+          <t>Tracey</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>SCOTTO</t>
+          <t>Zack</t>
         </is>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>scottodaniela@hotmail.com</t>
+          <t>tzack0317@gmail.com</t>
         </is>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>03/26/2025</t>
+          <t>03/31/2025</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sandy</t>
+          <t>Rosa</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Carliell</t>
+          <t>Notaroberto</t>
         </is>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>sandykhansk1@gmail.com</t>
+          <t>rosanotaroberto@hotmail.com</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>(413) 459-8444</t>
+          <t>6173885645</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>03/27/2025</t>
+          <t>03/31/2025</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Tracey</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Zack</t>
+          <t>Meireles</t>
         </is>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>tzack0317@gmail.com</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>sandradak1964@gmail.com</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>+17815269879</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>No Show</t>
@@ -3308,24 +3312,20 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Rosa</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Notaroberto</t>
+          <t>Natapov</t>
         </is>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>rosanotaroberto@hotmail.com</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>6173885645</t>
-        </is>
-      </c>
+          <t>maria_natapov@yahoo.com</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Current client</t>
@@ -3333,7 +3333,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>03/31/2025</t>
+          <t>04/04/2025</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
@@ -3345,125 +3345,129 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Laura</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Meireles</t>
+          <t>Nascimento</t>
         </is>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>sandradak1964@gmail.com</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>+17815269879</t>
-        </is>
-      </c>
+          <t>nascimentolaura@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Consultation OK</t>
         </is>
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>03/31/2025</t>
+          <t>04/07/2025</t>
         </is>
       </c>
       <c r="G82" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Yousemithe</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Natapov</t>
+          <t>CHARLES</t>
         </is>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>maria_natapov@yahoo.com</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>yousemithe29@gmail.com</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8576544869</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>04/04/2025</t>
+          <t>04/08/2025</t>
         </is>
       </c>
       <c r="G83" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Laura</t>
+          <t>Raquel</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Nascimento</t>
+          <t>Martinez</t>
         </is>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>nascimentolaura@hotmail.com</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>raquelkybc@gmail.com</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>(407) 687-6044</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Consultation OK</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>04/07/2025</t>
+          <t>04/14/2025</t>
         </is>
       </c>
       <c r="G84" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Yousemithe</t>
+          <t>Kathia</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>CHARLES</t>
+          <t>Paul</t>
         </is>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>yousemithe29@gmail.com</t>
+          <t>abeep29@gmail.com</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>8576544869</t>
+          <t>(551) 221-7858</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
@@ -3473,7 +3477,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>04/08/2025</t>
+          <t>04/14/2025</t>
         </is>
       </c>
       <c r="G85" t="inlineStr">
@@ -3485,59 +3489,59 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>Patrizia</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Martinez</t>
+          <t>Petruzziello</t>
         </is>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>raquelkybc@gmail.com</t>
+          <t>patriziap222@icloud.com</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>(407) 687-6044</t>
+          <t>7818647005</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>04/14/2025</t>
+          <t>04/15/2025</t>
         </is>
       </c>
       <c r="G86" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Kathia</t>
+          <t>Maria</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Meireles</t>
         </is>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>abeep29@gmail.com</t>
+          <t>sandradak1964@gmail.com</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>(551) 221-7858</t>
+          <t>+17815269879</t>
         </is>
       </c>
       <c r="E87" t="inlineStr">
@@ -3547,7 +3551,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>04/14/2025</t>
+          <t>04/16/2025</t>
         </is>
       </c>
       <c r="G87" t="inlineStr">
@@ -3559,56 +3563,56 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Patrizia</t>
+          <t>Joelle</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Petruzziello</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>patriziap222@icloud.com</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>7818647005</t>
-        </is>
-      </c>
+          <t>Keuchakarian</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr"/>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>04/15/2025</t>
+          <t>04/16/2025</t>
         </is>
       </c>
       <c r="G88" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Joelle</t>
+          <t>Kathia</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Keuchakarian</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>abeep29@gmail.com</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>(551) 221-7858</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F89" t="inlineStr">
@@ -3618,76 +3622,76 @@
       </c>
       <c r="G89" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Kathia</t>
+          <t>Gloribel</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Buruca</t>
         </is>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>abeep29@gmail.com</t>
+          <t>gburuca1@gmail.com</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>(551) 221-7858</t>
+          <t>973-735-3078</t>
         </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>04/16/2025</t>
+          <t>04/18/2025</t>
         </is>
       </c>
       <c r="G90" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Maria</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Meireles</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>sandradak1964@gmail.com</t>
+          <t>nmprairie@gmail.com</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>+17815269879</t>
+          <t>6179591406</t>
         </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>04/16/2025</t>
+          <t>04/18/2025</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
@@ -3699,22 +3703,22 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Jacqueline</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Peterson</t>
+          <t>Hebbert</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>nmprairie@gmail.com</t>
+          <t>jacq67hebb@gmail.com</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>6179591406</t>
+          <t>857-506-7616</t>
         </is>
       </c>
       <c r="E92" t="inlineStr">
@@ -3724,242 +3728,246 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>04/18/2025</t>
+          <t>04/22/2025</t>
         </is>
       </c>
       <c r="G92" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Gloribel</t>
+          <t>Isolina</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Buruca</t>
+          <t>Modesto</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>gburuca1@gmail.com</t>
+          <t>isolinamodesto@gmail.com</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>973-735-3078</t>
+          <t>+17818013569</t>
         </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>04/18/2025</t>
+          <t>04/23/2025</t>
         </is>
       </c>
       <c r="G93" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Jacqueline</t>
+          <t>Janine</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Hebbert</t>
+          <t>Gilarde</t>
         </is>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>jacq67hebb@gmail.com</t>
+          <t>Janinegilarde@yahoo.com</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>857-506-7616</t>
+          <t>6176100734</t>
         </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>04/22/2025</t>
+          <t>04/24/2025</t>
         </is>
       </c>
       <c r="G94" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Isolina</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Modesto</t>
+          <t>Peterson</t>
         </is>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>isolinamodesto@gmail.com</t>
+          <t>nmprairie@gmail.com</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>+17818013569</t>
+          <t>6179591406</t>
         </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>04/23/2025</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="G95" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Janine</t>
+          <t>Yana</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Gilarde</t>
+          <t>Barbalat</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Janinegilarde@yahoo.com</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>6176100734</t>
-        </is>
-      </c>
+          <t>yanabarbalat@gmail.com</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>04/24/2025</t>
+          <t>04/25/2025</t>
         </is>
       </c>
       <c r="G96" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Nicole</t>
+          <t>Harriet</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Peterson</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>nmprairie@gmail.com</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>6179591406</t>
-        </is>
-      </c>
+          <t>Finck</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr"/>
+      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F97" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>04/28/2025</t>
         </is>
       </c>
       <c r="G97" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Yana</t>
+          <t>Sherri</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Barbalat</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr"/>
-      <c r="D98" t="inlineStr"/>
+          <t>Crowley</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>sherripcrowley@gmail.com</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>9174140085</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>04/25/2025</t>
+          <t>04/29/2025</t>
         </is>
       </c>
       <c r="G98" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Harriet</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Finck</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr"/>
-      <c r="D99" t="inlineStr"/>
+          <t>O’Brien</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>kathryn.obrien88@gmail.com</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>3123424393</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>Scheduled</t>
@@ -3967,7 +3975,7 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>04/28/2025</t>
+          <t>04/29/2025</t>
         </is>
       </c>
       <c r="G99" t="inlineStr">
@@ -3979,61 +3987,49 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Kathryn</t>
+          <t>Danielle</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>O’Brien</t>
-        </is>
-      </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>kathryn.obrien88@gmail.com</t>
-        </is>
-      </c>
+          <t>Matthew</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr"/>
       <c r="D100" t="inlineStr">
         <is>
-          <t>3123424393</t>
+          <t>7818882103</t>
         </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>04/29/2025</t>
+          <t>05/02/2025</t>
         </is>
       </c>
       <c r="G100" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Sherri</t>
+          <t>Shelby</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Crowley</t>
-        </is>
-      </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>sherripcrowley@gmail.com</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>9174140085</t>
-        </is>
-      </c>
+          <t>Klash</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr"/>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>No Show</t>
@@ -4041,7 +4037,7 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>04/29/2025</t>
+          <t>05/05/2025</t>
         </is>
       </c>
       <c r="G101" t="inlineStr">
@@ -4053,150 +4049,162 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Danielle</t>
+          <t>Patrizia</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Matthew</t>
-        </is>
-      </c>
-      <c r="C102" t="inlineStr"/>
+          <t>Petruzziello</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>patriziap222@icloud.com</t>
+        </is>
+      </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>7818882103</t>
+          <t>7818647005</t>
         </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>05/02/2025</t>
+          <t>05/06/2025</t>
         </is>
       </c>
       <c r="G102" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Shelby</t>
+          <t>Karen</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Klash</t>
+          <t>Swyers</t>
         </is>
       </c>
       <c r="C103" t="inlineStr"/>
       <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>05/05/2025</t>
+          <t>05/07/2025</t>
         </is>
       </c>
       <c r="G103" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Patrizia</t>
+          <t>Kathryn</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Petruzziello</t>
+          <t>Harper</t>
         </is>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>patriziap222@icloud.com</t>
+          <t>harperk925@gmail.com</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>7818647005</t>
+          <t>4018559495</t>
         </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F104" t="inlineStr">
         <is>
-          <t>05/06/2025</t>
+          <t>05/08/2025</t>
         </is>
       </c>
       <c r="G104" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Karen</t>
+          <t>Sherri</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Swyers</t>
-        </is>
-      </c>
-      <c r="C105" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
+          <t>Crowley</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>sherripcrowley@gmail.com</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>9174140085</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>05/07/2025</t>
+          <t>05/08/2025</t>
         </is>
       </c>
       <c r="G105" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Kathryn</t>
+          <t>Melissa</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Harper</t>
+          <t>Sharpin</t>
         </is>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>harperk925@gmail.com</t>
+          <t>Melissa.meador1@gmail.com</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>4018559495</t>
+          <t>(781) 820-5270</t>
         </is>
       </c>
       <c r="E106" t="inlineStr">
@@ -4206,7 +4214,7 @@
       </c>
       <c r="F106" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>05/09/2025</t>
         </is>
       </c>
       <c r="G106" t="inlineStr">
@@ -4218,32 +4226,32 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Sherri</t>
+          <t>Ashwak</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Crowley</t>
+          <t>Bugg</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>sherripcrowley@gmail.com</t>
+          <t>ashwakn72@gmail.com</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>9174140085</t>
+          <t>(857) 576-7398</t>
         </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Consultation OK</t>
         </is>
       </c>
       <c r="F107" t="inlineStr">
         <is>
-          <t>05/08/2025</t>
+          <t>05/09/2025</t>
         </is>
       </c>
       <c r="G107" t="inlineStr">
@@ -4280,155 +4288,151 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>05/09/2025</t>
+          <t>05/12/2025</t>
         </is>
       </c>
       <c r="G108" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Melissa</t>
+          <t>Elena</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Sharpin</t>
+          <t>Fosco</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Melissa.meador1@gmail.com</t>
+          <t>elenafosco@myyahoo.com</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>(781) 820-5270</t>
+          <t>(617) 960-7613</t>
         </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>05/09/2025</t>
+          <t>05/14/2025</t>
         </is>
       </c>
       <c r="G109" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Ashwak</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Bugg</t>
+          <t>Bullard</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>ashwakn72@gmail.com</t>
+          <t>samantha.colton7@gmail.com</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>(857) 576-7398</t>
+          <t>6179907653</t>
         </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>Consultation OK</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F110" t="inlineStr">
         <is>
-          <t>05/12/2025</t>
+          <t>05/15/2025</t>
         </is>
       </c>
       <c r="G110" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Elena</t>
+          <t>Tatyana</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Fosco</t>
-        </is>
-      </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>elenafosco@myyahoo.com</t>
-        </is>
-      </c>
+          <t>Dudochkin</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr"/>
       <c r="D111" t="inlineStr">
         <is>
-          <t>(617) 960-7613</t>
+          <t>?(617) 780-5720?</t>
         </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F111" t="inlineStr">
         <is>
-          <t>05/14/2025</t>
+          <t>05/15/2025</t>
         </is>
       </c>
       <c r="G111" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Bullard</t>
+          <t>Dipaolo</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>samantha.colton7@gmail.com</t>
+          <t>ndipaolo28@gmail.com</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>6179907653</t>
+          <t>+13392059331</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>05/15/2025</t>
+          <t>05/16/2025</t>
         </is>
       </c>
       <c r="G112" t="inlineStr">
@@ -4440,18 +4444,22 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Tatyana</t>
+          <t>Erika</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Dudochkin</t>
-        </is>
-      </c>
-      <c r="C113" t="inlineStr"/>
+          <t>Gimenez</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Gimenezerika@hotmail.com</t>
+        </is>
+      </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>?(617) 780-5720?</t>
+          <t>6179357526</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4461,7 +4469,7 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>05/15/2025</t>
+          <t>05/19/2025</t>
         </is>
       </c>
       <c r="G113" t="inlineStr">
@@ -4473,138 +4481,138 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Vita</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Dipaolo</t>
+          <t>Luchitskaya</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>ndipaolo28@gmail.com</t>
+          <t>vitach69@gmail.com</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>+13392059331</t>
+          <t>4132309895</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>05/16/2025</t>
+          <t>05/19/2025</t>
         </is>
       </c>
       <c r="G114" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Erika</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Gimenez</t>
+          <t>Sky Babushkina</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Gimenezerika@hotmail.com</t>
+          <t>natbabushkina@gmail.com</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>6179357526</t>
+          <t>+17819298077</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
         <is>
-          <t>05/19/2025</t>
+          <t>05/20/2025</t>
         </is>
       </c>
       <c r="G115" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Vita</t>
+          <t>Sangthip</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Luchitskaya</t>
+          <t>Chaichueathip</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>vitach69@gmail.com</t>
+          <t>sangwealthy@icloud.com</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>4132309895</t>
+          <t>+19294563289</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>05/19/2025</t>
+          <t>05/20/2025</t>
         </is>
       </c>
       <c r="G116" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Sophie</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Sky Babushkina</t>
+          <t>Perlman</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>natbabushkina@gmail.com</t>
+          <t>sophiemperlman@gmail.com</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>+17819298077</t>
+          <t>5087333530</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F117" t="inlineStr">
@@ -4614,66 +4622,66 @@
       </c>
       <c r="G117" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Sangthip</t>
+          <t>lauren</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Chaichueathip</t>
+          <t>higgins</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>sangwealthy@icloud.com</t>
+          <t>laurenhiggs23@icloud.com</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>+19294563289</t>
+          <t>5087768448</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>05/20/2025</t>
+          <t>05/21/2025</t>
         </is>
       </c>
       <c r="G118" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Sophie</t>
+          <t>Mindy</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Perlman</t>
+          <t>Wang</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>sophiemperlman@gmail.com</t>
+          <t>mwang17@ymail.com</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>5087333530</t>
+          <t>(857) 507-7781</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
@@ -4683,7 +4691,7 @@
       </c>
       <c r="F119" t="inlineStr">
         <is>
-          <t>05/20/2025</t>
+          <t>05/21/2025</t>
         </is>
       </c>
       <c r="G119" t="inlineStr">
@@ -4695,22 +4703,22 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>lauren</t>
+          <t>talia</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>higgins</t>
+          <t>deleo</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>laurenhiggs23@icloud.com</t>
+          <t>talia.deleo1@icloud.com</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>5087768448</t>
+          <t>5082070892</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4732,27 +4740,19 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>talia</t>
+          <t>Violet</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>deleo</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>talia.deleo1@icloud.com</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>5082070892</t>
-        </is>
-      </c>
+          <t>Lanciloti</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Expired</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4762,132 +4762,140 @@
       </c>
       <c r="G121" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Violet</t>
+          <t>Dalia</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Lanciloti</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
+          <t>Popa</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Daliafromboston@yahoo.comd</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>6178776030</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Expired</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
         <is>
-          <t>05/21/2025</t>
+          <t>05/23/2025</t>
         </is>
       </c>
       <c r="G122" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Mindy</t>
+          <t>Livja</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Wang</t>
+          <t>Orr</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>mwang17@ymail.com</t>
+          <t>livorr@protonmail.com</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>(857) 507-7781</t>
+          <t>7742314346</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
         <is>
-          <t>05/21/2025</t>
+          <t>05/27/2025</t>
         </is>
       </c>
       <c r="G123" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Dalia</t>
+          <t>Samantha</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Popa</t>
+          <t>Bullard</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Daliafromboston@yahoo.comd</t>
+          <t>samantha.colton7@gmail.com</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>6178776030</t>
+          <t>6179907653</t>
         </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F124" t="inlineStr">
         <is>
-          <t>05/23/2025</t>
+          <t>05/27/2025</t>
         </is>
       </c>
       <c r="G124" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Samantha</t>
+          <t>Natasha</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Bullard</t>
+          <t>Sky Babushkina</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>samantha.colton7@gmail.com</t>
+          <t>natbabushkina@gmail.com</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>6179907653</t>
+          <t>+17819298077</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
@@ -4909,27 +4917,27 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Natasha</t>
+          <t>Jasmine</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Sky Babushkina</t>
+          <t>Chen</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>natbabushkina@gmail.com</t>
+          <t>jasmtea@gmail.com</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>+17819298077</t>
+          <t>(617) 319-0364</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
-          <t>Current client</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F126" t="inlineStr">
@@ -4939,29 +4947,29 @@
       </c>
       <c r="G126" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Jasmine</t>
+          <t>Veronica</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Chen</t>
+          <t>Tubbs</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>jasmtea@gmail.com</t>
+          <t>veronicaltubbs1973@icloud.com</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>(617) 319-0364</t>
+          <t>857-8587761</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4971,7 +4979,7 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>05/27/2025</t>
+          <t>05/29/2025</t>
         </is>
       </c>
       <c r="G127" t="inlineStr">
@@ -4983,22 +4991,22 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Livja</t>
+          <t>Adriana</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Orr</t>
+          <t>martins</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>livorr@protonmail.com</t>
+          <t>adri1977m@gmail.com</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>7742314346</t>
+          <t>+16172243465</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
@@ -5008,7 +5016,7 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>05/27/2025</t>
+          <t>05/29/2025</t>
         </is>
       </c>
       <c r="G128" t="inlineStr">
@@ -5020,27 +5028,27 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Veronica</t>
+          <t>Lea</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Tubbs</t>
+          <t>Liebish</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>veronicaltubbs1973@icloud.com</t>
+          <t>lealiebisch@gmail.com</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>857-8587761</t>
+          <t>6176107186</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -5050,140 +5058,140 @@
       </c>
       <c r="G129" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Adriana</t>
+          <t>Raquel</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>martins</t>
+          <t>Araujo Herrero</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>adri1977m@gmail.com</t>
+          <t>rahamaeme@gmail.com</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>+16172243465</t>
+          <t>(857) 707-6256</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
         <is>
-          <t>05/29/2025</t>
+          <t>05/30/2025</t>
         </is>
       </c>
       <c r="G130" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Lea</t>
+          <t>Kimmy</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Liebish</t>
+          <t>Nguyen</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>lealiebisch@gmail.com</t>
+          <t>kinmy0814@outlook.com</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>6176107186</t>
+          <t>7813758540</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>05/29/2025</t>
+          <t>06/02/2025</t>
         </is>
       </c>
       <c r="G131" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Raquel</t>
+          <t>Suona</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Araujo Herrero</t>
+          <t>Jorgji</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>rahamaeme@gmail.com</t>
+          <t>suona.92@gmail.com</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>(857) 707-6256</t>
+          <t>+1 (857) 250-1794</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>05/30/2025</t>
+          <t>06/02/2025</t>
         </is>
       </c>
       <c r="G132" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Kimmy</t>
+          <t>Joanne</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Nguyen</t>
+          <t>Maragni</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>kinmy0814@outlook.com</t>
+          <t>maragni13@gmail.com</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>7813758540</t>
+          <t>(617) 671-5198</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -5193,7 +5201,7 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>06/02/2025</t>
+          <t>06/04/2025</t>
         </is>
       </c>
       <c r="G133" t="inlineStr">
@@ -5205,170 +5213,166 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Suona</t>
+          <t>Lauren</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Jorgji</t>
+          <t>Brooks</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>suona.92@gmail.com</t>
+          <t>laurenberg50@gmail.com</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>+1 (857) 250-1794</t>
+          <t>3392251452</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>06/02/2025</t>
+          <t>06/05/2025</t>
         </is>
       </c>
       <c r="G134" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Joanne</t>
+          <t>Alicia</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Maragni</t>
+          <t>Broussard</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>maragni13@gmail.com</t>
+          <t>aliciatb1337@gmail.com</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>(617) 671-5198</t>
+          <t>3232434003</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>06/04/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="G135" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Lauren</t>
+          <t>Kirsten</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Brooks</t>
+          <t>Inlaw</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>laurenberg50@gmail.com</t>
+          <t>kninlaw@gmail.com</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>3392251452</t>
+          <t>9146904194</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>06/05/2025</t>
+          <t>06/06/2025</t>
         </is>
       </c>
       <c r="G136" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Kirsten</t>
+          <t>Hannah</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Inlaw</t>
+          <t>Swanstrom</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>kninlaw@gmail.com</t>
+          <t>hswanstrom@gmail.com</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>9146904194</t>
+          <t>7817424747</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>06/11/2025</t>
         </is>
       </c>
       <c r="G137" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Alicia</t>
+          <t>Paola</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Broussard</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>aliciatb1337@gmail.com</t>
-        </is>
-      </c>
+          <t>O'Brien</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr"/>
       <c r="D138" t="inlineStr">
         <is>
-          <t>3232434003</t>
+          <t>(617) 835-7351?</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
@@ -5378,34 +5382,30 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>06/06/2025</t>
+          <t>06/12/2025</t>
         </is>
       </c>
       <c r="G138" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Hannah</t>
+          <t>Shari</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Swanstrom</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>hswanstrom@gmail.com</t>
-        </is>
-      </c>
+          <t>Dangel</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr"/>
       <c r="D139" t="inlineStr">
         <is>
-          <t>7817424747</t>
+          <t>3392230616</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5415,7 +5415,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>06/11/2025</t>
+          <t>06/14/2025</t>
         </is>
       </c>
       <c r="G139" t="inlineStr">
@@ -5427,119 +5427,127 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Paola</t>
+          <t>Sanya</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>O'Brien</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr"/>
+          <t>Blumberg</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>sanya.blumberg@gmail.com</t>
+        </is>
+      </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>(617) 835-7351?</t>
+          <t>(508) 280-9860</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>06/12/2025</t>
+          <t>06/17/2025</t>
         </is>
       </c>
       <c r="G140" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Shari</t>
+          <t>Annabelle</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Dangel</t>
+          <t>Gardner</t>
         </is>
       </c>
       <c r="C141" t="inlineStr"/>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>3392230616</t>
-        </is>
-      </c>
+      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
         <is>
-          <t>06/14/2025</t>
+          <t>06/17/2025</t>
         </is>
       </c>
       <c r="G141" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Sanya</t>
+          <t>Lynn</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Blumberg</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>sanya.blumberg@gmail.com</t>
+          <t>angelneedham@verizon.net</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>(508) 280-9860</t>
+          <t>7814925912</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>06/17/2025</t>
+          <t>06/18/2025</t>
         </is>
       </c>
       <c r="G142" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Annabelle</t>
+          <t>Jessica</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Gardner</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr"/>
-      <c r="D143" t="inlineStr"/>
+          <t>Morson</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>jessicaamorson@gmail.com</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>6175169019</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>Try</t>
@@ -5547,7 +5555,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>06/17/2025</t>
+          <t>06/18/2025</t>
         </is>
       </c>
       <c r="G143" t="inlineStr">
@@ -5559,129 +5567,121 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Lynn</t>
+          <t>Vivian</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Liu</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>angelneedham@verizon.net</t>
+          <t>vliusomers@gmail.com</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>7814925912</t>
+          <t>6178422240</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>06/18/2025</t>
+          <t>06/19/2025</t>
         </is>
       </c>
       <c r="G144" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Jessica</t>
+          <t>Paola</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Morson</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>jessicaamorson@gmail.com</t>
-        </is>
-      </c>
+          <t>O'Brien</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr"/>
       <c r="D145" t="inlineStr">
         <is>
-          <t>6175169019</t>
+          <t>(617) 835-7351?</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>06/18/2025</t>
+          <t>06/20/2025</t>
         </is>
       </c>
       <c r="G145" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Vivian</t>
+          <t>DIANE</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Liu</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>vliusomers@gmail.com</t>
-        </is>
-      </c>
+          <t>BENADICT</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr"/>
       <c r="D146" t="inlineStr">
         <is>
-          <t>6178422240</t>
+          <t>867-396-4764</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Try</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>06/19/2025</t>
+          <t>06/20/2025</t>
         </is>
       </c>
       <c r="G146" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Paola</t>
+          <t>Chanel</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>O'Brien</t>
+          <t>Hsiang</t>
         </is>
       </c>
       <c r="C147" t="inlineStr"/>
       <c r="D147" t="inlineStr">
         <is>
-          <t>(617) 835-7351?</t>
+          <t>915-227-6010</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5703,18 +5703,22 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>DIANE</t>
+          <t>Chrystina</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>BENADICT</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr"/>
+          <t>Hai</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>chrystinahai143@gmail.com</t>
+        </is>
+      </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>867-396-4764</t>
+          <t>7742600174</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5724,7 +5728,7 @@
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>06/20/2025</t>
+          <t>06/24/2025</t>
         </is>
       </c>
       <c r="G148" t="inlineStr">
@@ -5736,18 +5740,22 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Chanel</t>
+          <t>Julie</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Hsiang</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr"/>
+          <t>Robinson</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>julie.a.robinson2@gmail.com</t>
+        </is>
+      </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>915-227-6010</t>
+          <t>9083042301</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5757,7 +5765,7 @@
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>06/20/2025</t>
+          <t>06/27/2025</t>
         </is>
       </c>
       <c r="G149" t="inlineStr">
@@ -5769,22 +5777,22 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Chrystina</t>
+          <t>Lynn</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Hai</t>
+          <t>Angel</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>chrystinahai143@gmail.com</t>
+          <t>angelneedham@verizon.net</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>7742600174</t>
+          <t>7814925912</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5794,7 +5802,7 @@
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>06/24/2025</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="G150" t="inlineStr">
@@ -5806,64 +5814,64 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Julie</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Robinson</t>
+          <t>Blodgett</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>julie.a.robinson2@gmail.com</t>
+          <t>tammy74blodgett@gmail.com</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>9083042301</t>
+          <t>8575657835</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>06/27/2025</t>
+          <t>06/30/2025</t>
         </is>
       </c>
       <c r="G151" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Lynn</t>
+          <t>Sharon</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Angel</t>
+          <t>Mishkin</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>angelneedham@verizon.net</t>
+          <t>marissadelisha@yahoo.com</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>7814925912</t>
+          <t>6179394885</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -5873,7 +5881,7 @@
       </c>
       <c r="G152" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Flop</t>
         </is>
       </c>
     </row>
@@ -5905,7 +5913,7 @@
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>07/02/2025</t>
         </is>
       </c>
       <c r="G153" t="inlineStr">
@@ -5917,96 +5925,92 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sharon</t>
+          <t>Tricia</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Mishkin</t>
+          <t>Tyler</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>marissadelisha@yahoo.com</t>
+          <t>tricia.tyler@comcast.net</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>6179394885</t>
+          <t>(617)990-4350</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>Current client</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>06/30/2025</t>
+          <t>07/07/2025</t>
         </is>
       </c>
       <c r="G154" t="inlineStr">
         <is>
-          <t>Flop</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>N Deja</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Blodgett</t>
+          <t>Marcelin</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>tammy74blodgett@gmail.com</t>
+          <t>ajedmarcelin@gmail.com</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>8575657835</t>
+          <t>8572877851</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Scheduled</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>07/02/2025</t>
+          <t>07/09/2025</t>
         </is>
       </c>
       <c r="G155" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Created</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Tricia</t>
+          <t>Lindsay</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Tyler</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>tricia.tyler@comcast.net</t>
-        </is>
-      </c>
+          <t>Flynn</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr"/>
       <c r="D156" t="inlineStr">
         <is>
-          <t>(617)990-4350</t>
+          <t>2024978877</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -6016,7 +6020,7 @@
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>07/07/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="G156" t="inlineStr">
@@ -6028,55 +6032,59 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>N Deja</t>
+          <t>Tammy</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Marcelin</t>
+          <t>Blodgett</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>ajedmarcelin@gmail.com</t>
+          <t>tammy74blodgett@gmail.com</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>8572877851</t>
+          <t>8575657835</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Scheduled</t>
+          <t>No Show</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>07/09/2025</t>
+          <t>07/11/2025</t>
         </is>
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>Created</t>
+          <t>No Show</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Lindsay</t>
+          <t>Shree</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Flynn</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr"/>
+          <t>Ganguly</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>shree24@gmail.com</t>
+        </is>
+      </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>2024978877</t>
+          <t>8659247031</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -6086,7 +6094,7 @@
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="G158" t="inlineStr">
@@ -6098,72 +6106,521 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Tammy</t>
+          <t>Nicole</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Blodgett</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>tammy74blodgett@gmail.com</t>
-        </is>
-      </c>
+          <t>Hadar</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr"/>
       <c r="D159" t="inlineStr">
         <is>
-          <t>8575657835</t>
+          <t>(857) 222-9612?</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>Try</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>07/11/2025</t>
+          <t>07/19/2025</t>
         </is>
       </c>
       <c r="G159" t="inlineStr">
         <is>
-          <t>No Show</t>
+          <t>OK</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
+          <t>Atousa</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>Wikström</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr"/>
+      <c r="D160" t="inlineStr"/>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>07/19/2025</t>
+        </is>
+      </c>
+      <c r="G160" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>Jaynes</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr"/>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>617-283-8598</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>07/22/2025</t>
+        </is>
+      </c>
+      <c r="G161" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
           <t>Karen</t>
         </is>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Cutone</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>karen.cutone@yahoo.com</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>6175849307</t>
         </is>
       </c>
-      <c r="E160" t="inlineStr">
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>07/25/2025</t>
+        </is>
+      </c>
+      <c r="G162" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Heather</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>Pleskow</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr"/>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>(339-225-1333)</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>07/26/2025</t>
+        </is>
+      </c>
+      <c r="G163" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Lisa</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Jaynes</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr"/>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>617-283-8598</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>07/29/2025</t>
+        </is>
+      </c>
+      <c r="G164" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Juliana</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>Santos</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>juliana9.0@hotmail.com</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>+18578915669</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>07/29/2025</t>
+        </is>
+      </c>
+      <c r="G165" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Suzanne</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>Pogorelec</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>07/30/2025</t>
+        </is>
+      </c>
+      <c r="G166" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Donna</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Ginsburg</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>donnafonna@icloud.com</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>6175956630</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>07/31/2025</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Flop</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Sara</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Kahana</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>s.kahana34@gmail.com</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>6178930767</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>Current client</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>08/01/2025</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
+        <is>
+          <t>OK</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Yousemithe</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>CHARLES</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>yousemithe29@gmail.com</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>8576544869</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>08/01/2025</t>
+        </is>
+      </c>
+      <c r="G169" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Yousemithe</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>CHARLES</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>yousemithe29@gmail.com</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>8576544869</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>08/04/2025</t>
+        </is>
+      </c>
+      <c r="G170" t="inlineStr">
+        <is>
+          <t>No Show</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Karen</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Richards</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>karen.klein@comcast.net</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>+1 617-721-5454</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
         <is>
           <t>Scheduled</t>
         </is>
       </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>07/25/2025</t>
-        </is>
-      </c>
-      <c r="G160" t="inlineStr">
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>08/06/2025</t>
+        </is>
+      </c>
+      <c r="G171" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Jennifer</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>Duffy</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>j.duffy0042@gmail.com</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>6175719329</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>08/06/2025</t>
+        </is>
+      </c>
+      <c r="G172" t="inlineStr">
+        <is>
+          <t>Created</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Kindred</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>Obas</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>kobas@wellesley.edu</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>3342073571</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>Scheduled</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>08/08/2025</t>
+        </is>
+      </c>
+      <c r="G173" t="inlineStr">
         <is>
           <t>Created</t>
         </is>
